--- a/grafo/nodos_entidades_sorted.xlsx
+++ b/grafo/nodos_entidades_sorted.xlsx
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>tipo de entidad</t>
+          <t>nodo</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>número</t>
+          <t>entidad</t>
         </is>
       </c>
     </row>

--- a/grafo/nodos_entidades_sorted.xlsx
+++ b/grafo/nodos_entidades_sorted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,12 +466,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>paucartambo</t>
+          <t>virgen_de_rosario_festividad</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>event</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>chunchada</t>
+          <t>virgen del carmen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>concept</t>
+          <t>religious_figure</t>
         </is>
       </c>
     </row>
@@ -496,12 +496,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>achiwa</t>
+          <t>paucartambo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>concept</t>
+          <t>place</t>
         </is>
       </c>
     </row>
@@ -511,12 +511,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>virgen del carmen</t>
+          <t>achiwa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>religious_figure</t>
+          <t>concept</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>incas</t>
+          <t>templo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>structure</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>familia</t>
+          <t>españoles</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isaias rojas huaman</t>
+          <t>anselmo rojas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -571,12 +571,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>chanan qoricoca</t>
+          <t>salqa_qollas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>concept</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jessely carbajal sanchez</t>
+          <t>isaias rojas huaman</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>anselmo rojas</t>
+          <t>chunchada dance</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>event</t>
         </is>
       </c>
     </row>
@@ -616,12 +616,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>danza</t>
+          <t>virgen_maria</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>concept</t>
+          <t>person</t>
         </is>
       </c>
     </row>
@@ -631,12 +631,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>templo</t>
+          <t>incas</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>structure</t>
+          <t>group</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>españoles</t>
+          <t>virgen_de_rosario_1660</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>person</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>antisuyo</t>
+          <t>cargo wasi</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -676,12 +676,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>batalla de muret</t>
+          <t>chanan_qoricoca</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>event</t>
+          <t>person</t>
         </is>
       </c>
     </row>
@@ -691,12 +691,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>virgen maría</t>
+          <t>tahuantinsuyo</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>concept</t>
+          <t>place</t>
         </is>
       </c>
     </row>
@@ -706,12 +706,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>makana</t>
+          <t>templo_colonial_nuestra_señora_del_rosario_de_paucartambo</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>concept</t>
+          <t>structure</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>siklla</t>
+          <t>achiwa_inca</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -736,12 +736,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>rojas huaman</t>
+          <t>domingo_de_guzmán</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>person</t>
         </is>
       </c>
     </row>
@@ -751,12 +751,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>salqa qollas</t>
+          <t>makana dance</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>event</t>
         </is>
       </c>
     </row>
@@ -766,12 +766,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>bertha flores garrido</t>
+          <t>incari_macana</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>concept</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>lienzo_de_la_virgen_del_rosario</t>
+          <t>rojas huaman family</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>artwork</t>
+          <t>group</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>chunchos</t>
+          <t>kosñipata</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>concept</t>
+          <t>location</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>cofradía_de_danzas_de_nuestra_señora_del_rosario</t>
+          <t>keros</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>virgen de rosario de paucartambo</t>
+          <t>wachipeire</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>group</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>kosñipata</t>
+          <t>wayri chunchu dance</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>event</t>
         </is>
       </c>
     </row>
@@ -856,12 +856,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>qoylluritti</t>
+          <t>siklla dance</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>event</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>keros</t>
+          <t>rosalvina alvarez cana</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>person</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>wachipeire</t>
+          <t>bertha flores garrido</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>person</t>
         </is>
       </c>
     </row>
@@ -901,12 +901,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>martinez</t>
+          <t>milagros_alccacuntor_farronan</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>person</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>miguel huanca</t>
+          <t>bertha_flores_garrido</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>wayri chunchu</t>
+          <t>inca</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>concept</t>
+          <t>person</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>rosalvina alvarez cana</t>
+          <t>jessely carbajal sanchez</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>marlyn huamán álvarez</t>
+          <t>emerson</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -976,12 +976,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>rosa albina álvarez</t>
+          <t>mamacha rosario</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>entity</t>
         </is>
       </c>
     </row>
@@ -991,12 +991,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>rosa follana</t>
+          <t>qumillo</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>entity</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>carmen milagros gutierrez cuadros</t>
+          <t>marcelino</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>kenny salcedo ttito</t>
+          <t>puente_de_piedra</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>structure</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>flor karina flores astete</t>
+          <t>coca</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>plant</t>
         </is>
       </c>
     </row>
@@ -1051,12 +1051,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>maricielo salcedo ttito</t>
+          <t>caña</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>plant</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>heidy salcedo ttito</t>
+          <t>rosalvina_alvarez_cana</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1081,12 +1081,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>jesucristo</t>
+          <t>familia_rojas_huaman</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>concept</t>
+          <t>group</t>
         </is>
       </c>
     </row>
@@ -1096,12 +1096,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>tahuantinsuyo</t>
+          <t>dirección_desconcentrada_de_cultura_de_cuzco</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>concept</t>
+          <t>organization</t>
         </is>
       </c>
     </row>
@@ -1111,12 +1111,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>emerson</t>
+          <t>el_templo_de_paucartambo</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>place</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>qarataka</t>
+          <t>mascaipacha</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>concept</t>
         </is>
       </c>
     </row>
@@ -1141,12 +1141,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>taiku chunchu</t>
+          <t>qolla</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>concept</t>
         </is>
       </c>
     </row>
@@ -1156,12 +1156,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>mamacha rosario</t>
+          <t>museo_inca</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>place</t>
         </is>
       </c>
     </row>
@@ -1171,12 +1171,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>virrey</t>
+          <t>cuzco</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>place</t>
         </is>
       </c>
     </row>
@@ -1186,12 +1186,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>rey de españa</t>
+          <t>iglesia_católica</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>organization</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>virgen</t>
+          <t>simón_cuarto_de_montfort</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>person</t>
         </is>
       </c>
     </row>
@@ -1216,12 +1216,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>virgen del altar</t>
+          <t>batalla_de_muret</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>event</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>marcelino</t>
+          <t>orden_dominicos</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>organization</t>
         </is>
       </c>
     </row>
@@ -1246,12 +1246,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>virgen_asunta</t>
+          <t>franciscanos</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>concept</t>
+          <t>organization</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>calca</t>
+          <t>españa</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1276,12 +1276,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>virgen_maría</t>
+          <t>niño_jesús</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>concept</t>
+          <t>person</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>españa</t>
+          <t>virgen_de_rosario_independencia</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>person</t>
         </is>
       </c>
     </row>
@@ -1306,12 +1306,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>puente_de_piedra</t>
+          <t>antisuyo</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>structure</t>
+          <t>concept</t>
         </is>
       </c>
     </row>
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>coca</t>
+          <t>camaretazo</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>plant</t>
+          <t>event</t>
         </is>
       </c>
     </row>
@@ -1336,12 +1336,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>caña</t>
+          <t>danzas</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>plant</t>
+          <t>concept</t>
         </is>
       </c>
     </row>
@@ -1351,12 +1351,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>rosalvina_alvarez_cana</t>
+          <t>cacharpari</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>event</t>
         </is>
       </c>
     </row>
@@ -1366,552 +1366,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>familia_rojas_huaman</t>
+          <t>carguyoc</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>group</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>jessely_carvajal_sánchez</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>hernán</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>templo_colonial_nuestra_señora_del_rosario</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>structure</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>edgar_guevara</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>santo_domingo_de_guzmán</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>san_francisco</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>puente_carlos_tercero</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>structure</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>jorge_portugal</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>conquistadores</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>group</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>antisuyanos</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
           <t>concept</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>san sebastián</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>templo de san sebastián</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>place</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>templo de paucartambo</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>place</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>achiwa inca</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>concept</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>mascaipacha</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>concept</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>qolla</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>museo inca</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>place</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>inkari makana</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>concept</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>cuzco</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>place</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>distrito de paucartambo</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>place</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>nuestra señora de rosario</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>iglesia católica</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>organization</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>domingo de guzmán</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>simón iv de montfort</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>orden de los predicadores dominicos</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>organization</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>franciscanos</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>organization</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>parroquia de paucartambo</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>organization</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>niño jesús</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>cofradía de la tercera orden dominicana</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>organization</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>obispo de la arquidiócesis de cusco</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>vaticano</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>place</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>cementerio</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>place</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>plaza de armas</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>place</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>reina de las chunchadas</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>cargo wasi</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>place</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>carguyoc</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>person</t>
         </is>
       </c>
     </row>
